--- a/1a.xlsx
+++ b/1a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Java\git\inf102f18-mandatory1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682DAE39-117B-41F9-B10C-DAE7385EB4FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40760D2-62E2-4FE5-A3EC-6D0799AA4DC7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24744" windowHeight="7032" xr2:uid="{F30223E2-ECED-4509-A2AE-C948A6BDB1E6}"/>
   </bookViews>
@@ -1138,7 +1138,7 @@
   <dimension ref="B3:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/1a.xlsx
+++ b/1a.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Java\git\inf102f18-mandatory1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carl-flip\git\inf102oblig1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40760D2-62E2-4FE5-A3EC-6D0799AA4DC7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EF0562-23FB-4E0B-B54D-D3962EFDEC1D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24744" windowHeight="7032" xr2:uid="{F30223E2-ECED-4509-A2AE-C948A6BDB1E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24743" windowHeight="7035" xr2:uid="{F30223E2-ECED-4509-A2AE-C948A6BDB1E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -836,7 +836,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1138,18 +1138,18 @@
   <dimension ref="B3:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
-    <col min="3" max="15" width="5.77734375" customWidth="1"/>
-    <col min="16" max="25" width="4.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.796875" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" customWidth="1"/>
+    <col min="3" max="15" width="5.796875" customWidth="1"/>
+    <col min="16" max="25" width="4.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:15" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="K8" s="8">
         <v>5</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>13</v>
       </c>
       <c r="M8" s="8">
@@ -1399,7 +1399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1538,7 +1538,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1553,7 +1553,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1568,7 +1568,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1583,7 +1583,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1598,7 +1598,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1613,7 +1613,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1627,7 +1627,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1641,7 +1641,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1655,7 +1655,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
